--- a/biology/Botanique/Palais_du_vin/Palais_du_vin.xlsx
+++ b/biology/Botanique/Palais_du_vin/Palais_du_vin.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F2"/>
+  <dimension ref="A1:H2"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,9 +490,11 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Le Palais du vin (en néerlandais : het Wijnpaleis) est un ancien commerce de vin situé rue des Tanneurs, 58-62, à Bruxelles. Construit en 1909 et agrandi en 1919 pour la famille Brias, le CPAS en est propriétaire depuis 1996. Les bâtiments ont été classés en 2001 et rénovés entre 1998 et 2006. Les sgraffites ont été restaurés de manière remarquable[2].
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Le Palais du vin (en néerlandais : het Wijnpaleis) est un ancien commerce de vin situé rue des Tanneurs, 58-62, à Bruxelles. Construit en 1909 et agrandi en 1919 pour la famille Brias, le CPAS en est propriétaire depuis 1996. Les bâtiments ont été classés en 2001 et rénovés entre 1998 et 2006. Les sgraffites ont été restaurés de manière remarquable.
 </t>
         </is>
       </c>
